--- a/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -407,27 +407,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>test_Elements</t>
+          <t>test_ForgotPasswordElements</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_Elements_07_February_2022_03_34PM.pdf</t>
+          <t>test_ForgotPasswordElements_07_February_2022_06_51PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>test_LoginPage</t>
+          <t>test_ElementsPresent</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>This test scenario is to verify all the Elements present in Login Page</t>
+          <t>This test scenario is to verify all the Elements present at Forgot Password page</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -437,12 +437,38 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test_LoginPageElements</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test_LoginPageElements_07_February_2022_06_51PM.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test_ElementsPresent</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>This test scenario is to verify all the Elements present at Login Page</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Send Only when Fail=No</t>
         </is>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_ForgotPasswordElements_07_February_2022_06_51PM.pdf</t>
+          <t>test_ForgotPasswordElements_09_February_2022_06_11PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_LoginPageElements_07_February_2022_06_51PM.pdf</t>
+          <t>test_LoginPageElements_09_February_2022_06_11PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>test_ForgotPasswordElements_09_February_2022_06_11PM.pdf</t>
+          <t>test_ForgotPasswordElements_02_March_2022_03_17PM.pdf</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_LoginPageElements_09_February_2022_06_11PM.pdf</t>
+          <t>test_LoginPageElements_02_March_2022_03_15PM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -468,7 +468,61 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_ForgotPasswordWorking</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test_ForgotPasswordWorking_02_March_2022_03_11PM.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test_Working</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This test scenario is to verify working of Forgot Password</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test_LoginPageWorking</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test_LoginPageWorking_02_March_2022_03_08PM.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test_Working</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>This test scenario is to verify working of Login Process</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
+++ b/AverTest/test_LoginPage/PDFFileNameData/FileName.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test_LoginPageElements_02_March_2022_03_15PM.pdf</t>
+          <t>test_LoginPageElements_06_March_2022_02_00AM.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
